--- a/results/bairros_rj_populacao.xlsx
+++ b/results/bairros_rj_populacao.xlsx
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1132,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="4">
@@ -1140,7 +1140,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3">
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="4">
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3">
@@ -1164,7 +1164,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="4">
@@ -1172,7 +1172,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="4">
@@ -1188,7 +1188,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3">
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="4">
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="3">
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="4">
